--- a/data/trans_dic/P19C09-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C09-Habitat-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P19C09-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C09-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -642,37 +642,37 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,48%</t>
         </is>
       </c>
     </row>
@@ -695,37 +695,37 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,0</t>
+          <t>1,0; 7,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,77</t>
+          <t>0,0; 6,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>1,03; 8,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,86</t>
+          <t>0,0; 6,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>0,0; 3,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>0,5; 4,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>0,95; 5,13</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,74%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>2,18; 5,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>1,0; 4,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>1,79; 5,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>2,96; 7,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,71; 3,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>1,08; 3,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>2,97; 5,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,09; 3,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>1,69; 4,09</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,93%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,35; 3,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,81; 2,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>1,69; 3,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>2,26; 4,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>1,88; 4,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>2,11; 4,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>2,09; 3,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>1,55; 3,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>2,19; 3,9</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,0%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>1,33; 4,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,64; 2,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>1,64; 4,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>1,55; 4,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>1,42; 4,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,52; 2,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>1,72; 3,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>1,31; 3,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>1,28; 2,92</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,14%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>1,67; 4,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>1,32; 3,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>1,86; 4,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>1,63; 3,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>2,32; 4,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>2,25; 4,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>1,91; 3,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>2,15; 3,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>2,4; 4,1</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,76%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>2,03; 3,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,3; 2,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>2,26; 3,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,54; 3,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,25; 3,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,13; 3,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>2,44; 3,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>1,88; 2,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>2,36; 3,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C09-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C09-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,69%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>1,8; 4,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>0,82; 3,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 7,58</t>
+          <t>1,91; 5,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,27</t>
+          <t>2,81; 6,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 8,82</t>
+          <t>0,97; 3,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,02</t>
+          <t>1,16; 3,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,71</t>
+          <t>2,56; 5,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,33</t>
+          <t>1,12; 2,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 5,13</t>
+          <t>1,82; 4,02</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,93%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 5,8</t>
+          <t>1,35; 3,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,04</t>
+          <t>0,81; 2,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,79; 5,36</t>
+          <t>1,69; 3,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 7,03</t>
+          <t>2,26; 4,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,07</t>
+          <t>1,88; 4,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,99</t>
+          <t>2,11; 4,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 5,74</t>
+          <t>2,09; 3,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,0</t>
+          <t>1,55; 3,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 4,09</t>
+          <t>2,19; 3,9</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>2,0%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,76</t>
+          <t>1,33; 4,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,49</t>
+          <t>0,64; 2,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 3,91</t>
+          <t>1,64; 4,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 4,77</t>
+          <t>1,55; 4,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,37</t>
+          <t>1,42; 4,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 4,77</t>
+          <t>0,52; 2,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 3,88</t>
+          <t>1,72; 3,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,08</t>
+          <t>1,31; 3,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 3,9</t>
+          <t>1,28; 2,92</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>3,14%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,52</t>
+          <t>1,67; 4,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,63</t>
+          <t>1,32; 3,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,6</t>
+          <t>1,86; 4,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,15</t>
+          <t>1,63; 3,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,04</t>
+          <t>2,32; 4,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,48</t>
+          <t>2,25; 4,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,69</t>
+          <t>1,91; 3,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,02</t>
+          <t>2,15; 3,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,92</t>
+          <t>2,4; 4,1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1087,32 +1087,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>2,76%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,67; 4,05</t>
+          <t>2,03; 3,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,75</t>
+          <t>1,3; 2,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,28</t>
+          <t>2,26; 3,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,63; 3,95</t>
+          <t>2,54; 3,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,9</t>
+          <t>2,25; 3,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,25; 4,93</t>
+          <t>2,13; 3,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,91; 3,58</t>
+          <t>2,44; 3,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,15; 3,9</t>
+          <t>1,88; 2,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 4,1</t>
+          <t>2,36; 3,27</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,62%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,72%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,85%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>3,14%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>2,81%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>2,66%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>2,9%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>2,28%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>2,76%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>2,03; 3,34</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,3; 2,36</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2,26; 3,53</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>2,54; 3,84</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>2,25; 3,48</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>2,13; 3,42</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>2,44; 3,38</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>1,88; 2,72</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>2,36; 3,27</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P19C09-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C09-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,64</t>
+          <t>1,63; 4,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,31</t>
+          <t>0,84; 3,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 5,02</t>
+          <t>1,98; 5,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,81; 6,35</t>
+          <t>2,65; 6,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,27</t>
+          <t>0,95; 3,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,7</t>
+          <t>1,06; 3,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,56; 5,05</t>
+          <t>2,52; 4,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,75</t>
+          <t>1,13; 2,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,02</t>
+          <t>1,85; 3,96</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,76</t>
+          <t>1,41; 3,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,49</t>
+          <t>0,73; 2,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 3,91</t>
+          <t>1,72; 4,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,26; 4,77</t>
+          <t>2,34; 4,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,37</t>
+          <t>1,84; 4,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,11; 4,77</t>
+          <t>2,14; 4,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,09; 3,88</t>
+          <t>2,07; 3,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,08</t>
+          <t>1,66; 3,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,19; 3,9</t>
+          <t>2,2; 3,82</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,52</t>
+          <t>1,4; 4,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,63</t>
+          <t>0,64; 2,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,6</t>
+          <t>1,68; 4,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,15</t>
+          <t>1,5; 4,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,04</t>
+          <t>1,45; 4,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,48</t>
+          <t>0,53; 2,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,69</t>
+          <t>1,75; 3,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,02</t>
+          <t>1,23; 3,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,92</t>
+          <t>1,23; 3,01</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 4,05</t>
+          <t>1,59; 4,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,75</t>
+          <t>1,35; 3,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,28</t>
+          <t>1,81; 4,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 3,95</t>
+          <t>1,67; 4,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,9</t>
+          <t>2,22; 4,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,25; 4,93</t>
+          <t>2,28; 4,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,91; 3,58</t>
+          <t>1,8; 3,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,15; 3,9</t>
+          <t>2,14; 3,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,4; 4,1</t>
+          <t>2,31; 4,06</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,03; 3,34</t>
+          <t>2,03; 3,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,3; 2,36</t>
+          <t>1,26; 2,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,53</t>
+          <t>2,3; 3,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,54; 3,84</t>
+          <t>2,54; 3,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,25; 3,48</t>
+          <t>2,24; 3,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,13; 3,42</t>
+          <t>2,07; 3,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,44; 3,38</t>
+          <t>2,43; 3,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,88; 2,72</t>
+          <t>1,93; 2,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,36; 3,27</t>
+          <t>2,33; 3,2</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por otros motivos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>14399</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10101</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16967</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>22497</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11812</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>11780</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>36897</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>21914</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>28746</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7794; 22939</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4997; 20231</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>10406; 27438</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>14243; 32510</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5928; 20791</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5762; 19768</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>25579; 49620</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>13732; 33867</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>19790; 42388</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>17300</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12146</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>21656</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>26726</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>26233</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>27705</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>44026</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>38380</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>49361</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>10208; 27681</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6185; 20255</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>14039; 32844</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>18789; 39294</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>16304; 38079</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>18506; 40725</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>31661; 58212</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>28716; 54537</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>37066; 64231</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>14052</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15424</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>15128</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>16595</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7153</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>29179</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>25654</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>22577</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7604; 24312</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4021; 17219</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9262; 26473</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8766; 24201</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9524; 27559</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3069; 14306</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>19701; 41373</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15802; 38889</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>13854; 33987</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>18538</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>17477</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>22016</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>21683</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>31520</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>29761</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>40221</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>48998</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>51777</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>11255; 28916</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>10464; 29606</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>14010; 32348</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>13510; 33595</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>19997; 43960</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>20016; 43498</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>27344; 53140</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>35749; 65187</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>38164; 66955</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>64290</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>48784</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>76062</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>86034</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>86161</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>76400</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>150323</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>134945</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>152462</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>49747; 80395</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>35840; 65963</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>61151; 96900</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>69534; 106829</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>68765; 106697</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>59388; 95811</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>126092; 178096</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>114248; 163248</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>128980; 177268</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>